--- a/lb5/генератор.xlsx
+++ b/lb5/генератор.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>34000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -391,7 +391,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0000000000000001E-5</v>
+        <f>10^(-8)</f>
+        <v>1E-8</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -399,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -416,7 +417,7 @@
       </c>
       <c r="C7">
         <f>C5/(C5+C6)</f>
-        <v>0.90909090909090906</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -425,7 +426,7 @@
       </c>
       <c r="C8">
         <f>C3*C4*LN((1+C7)/(1-C7))</f>
-        <v>1.0351376288259637</v>
+        <v>1.8232155679395459E-5</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -434,7 +435,7 @@
       </c>
       <c r="C9">
         <f>C8*2</f>
-        <v>2.0702752576519274</v>
+        <v>3.6464311358790918E-5</v>
       </c>
     </row>
   </sheetData>
